--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H2">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.43170609809926</v>
+        <v>5.057757666666666</v>
       </c>
       <c r="N2">
-        <v>3.43170609809926</v>
+        <v>15.173273</v>
       </c>
       <c r="O2">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="P2">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="Q2">
-        <v>5.975568836226532</v>
+        <v>9.142401072347445</v>
       </c>
       <c r="R2">
-        <v>5.975568836226532</v>
+        <v>82.281609651127</v>
       </c>
       <c r="S2">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="T2">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H3">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.1117256832495</v>
+        <v>14.247411</v>
       </c>
       <c r="N3">
-        <v>14.1117256832495</v>
+        <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="P3">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="Q3">
-        <v>24.57249712174047</v>
+        <v>25.753615374463</v>
       </c>
       <c r="R3">
-        <v>24.57249712174047</v>
+        <v>231.782538370167</v>
       </c>
       <c r="S3">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="T3">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H4">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.463335193727371</v>
+        <v>9.866548666666667</v>
       </c>
       <c r="N4">
-        <v>9.463335193727371</v>
+        <v>29.599646</v>
       </c>
       <c r="O4">
-        <v>0.3504060742428313</v>
+        <v>0.3382230999267418</v>
       </c>
       <c r="P4">
-        <v>0.3504060742428313</v>
+        <v>0.3382230999267418</v>
       </c>
       <c r="Q4">
-        <v>16.47833737910251</v>
+        <v>17.83477008101711</v>
       </c>
       <c r="R4">
-        <v>16.47833737910251</v>
+        <v>160.512930729154</v>
       </c>
       <c r="S4">
-        <v>0.3504060742428313</v>
+        <v>0.3382230999267418</v>
       </c>
       <c r="T4">
-        <v>0.3504060742428313</v>
+        <v>0.3382230999267418</v>
       </c>
     </row>
   </sheetData>
